--- a/linux-kernel/memory.xlsx
+++ b/linux-kernel/memory.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>系统中只存在3个区</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -101,6 +101,158 @@
   </si>
   <si>
     <t>vfree(buf)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct slab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list 满，部分满，或空链表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已分配对象数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个空对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmalloc就是基于通用告诉缓存实现的，通用缓存应该就是类似于libc ptmalloc的功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速缓存分配对象时，优先部分满的开始分配，这样可以减少碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建slab高速缓存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmem_cache* kmem_cache_craate(name,size…) size是单个对象大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>void* kmem_cache_alloc(kmem_cache*,gfpFlags)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在高速缓存上释放对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在高速缓存上分配对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>void kmem_cache_free(kmem_cache*,object*)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁高速缓存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmem_cache_destroy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在栈上分配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个task有自己的内核栈，可以在上面分配，就是局部变量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断与软中断都有自己的栈，一般每个CPU对应一个。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端内存映射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果虚拟地址3-4G区间都映射到物理内存的0-1G上，那么内核通过虚拟地址访问可以访问到0-1G的物理内存，但如果物理内存是8G，那么内核就不能访问2-8G的区域了。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，内核虚拟地址3-4G区域，最后的128M作为高端内存，不能直接映射到物理内存0-1G，留给映射到1G以上的物理内存区域，这部分就叫做高端内存映射。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>void* kmap(page*), 如果给定的page属于物理内存低端区域，由于已经被内核映射过了，那么直接返回虚拟地址即可。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果page属于物理内存高端区域，那么需要建立内核高端地址空间到物理内存的映射，然后返回虚拟地址。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kunmap(page*)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久映射，内部需要建立映射关系，可能需要睡眠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时映射，如果不允许睡眠的上下文，需要临时映射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核有一组保留的映射，可以临时映射到此位置，这个也是原子映射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmap_atomic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kunmap_atomic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对每个CPU进行分配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned long my_percpu[NR_CPUS]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int cpu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu = get_cpu() // 获得当前处理器，并禁止内核强占</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_percpu[cpu]++ //做什么都可以</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>put_cpu() // 激活内核强占</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法1：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1338,7 +1490,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1361,14 +1513,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2250,6 +2402,1391 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="8905875"/>
+          <a:ext cx="819150" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>高速缓存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="8743950"/>
+          <a:ext cx="847725" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>slab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>类型）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>满</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="9324975"/>
+          <a:ext cx="847725" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>slab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>类型）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部分满</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="组合 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3505200" y="8524875"/>
+          <a:ext cx="942975" cy="561975"/>
+          <a:chOff x="3505200" y="8524875"/>
+          <a:chExt cx="942975" cy="561975"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="矩形 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3505200" y="8524875"/>
+            <a:ext cx="638175" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>object</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="矩形 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3657600" y="8677275"/>
+            <a:ext cx="638175" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>object</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="矩形 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3810000" y="8829675"/>
+            <a:ext cx="638175" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>object</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="组合 30"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3629025" y="9334500"/>
+          <a:ext cx="942975" cy="561975"/>
+          <a:chOff x="3505200" y="8524875"/>
+          <a:chExt cx="942975" cy="561975"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="矩形 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3505200" y="8524875"/>
+            <a:ext cx="638175" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>object</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="矩形 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3657600" y="8677275"/>
+            <a:ext cx="638175" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>object</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="矩形 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3810000" y="8829675"/>
+            <a:ext cx="638175" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>object</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2000250" y="8920163"/>
+          <a:ext cx="400050" cy="271462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接连接符 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="9191625"/>
+          <a:ext cx="390525" cy="309563"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3248025" y="8653463"/>
+          <a:ext cx="257175" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接连接符 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3238500" y="9463088"/>
+          <a:ext cx="390525" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="9896475"/>
+          <a:ext cx="847725" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>slab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>类型）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>空</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="9191625"/>
+          <a:ext cx="390525" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="组合 50"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3648075" y="10067925"/>
+          <a:ext cx="942975" cy="561975"/>
+          <a:chOff x="3505200" y="8524875"/>
+          <a:chExt cx="942975" cy="561975"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="矩形 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3505200" y="8524875"/>
+            <a:ext cx="638175" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>object</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="矩形 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3657600" y="8677275"/>
+            <a:ext cx="638175" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>object</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="矩形 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3810000" y="8829675"/>
+            <a:ext cx="638175" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>object</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接连接符 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="3"/>
+          <a:endCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="10072688"/>
+          <a:ext cx="409575" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1495425" y="13801725"/>
+          <a:ext cx="3873500" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2575,10 +4112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D29:R59"/>
+  <dimension ref="D29:AC133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="N136" sqref="N136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -2644,54 +4181,247 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="4:29">
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="4:29">
       <c r="F50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="4:29">
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="4:6">
+    <row r="53" spans="4:29">
       <c r="D53" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="4:6">
+    <row r="54" spans="4:29">
       <c r="F54" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="4:6">
+    <row r="55" spans="4:29">
       <c r="F55" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="4:6">
+    <row r="56" spans="4:29">
       <c r="F56" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="4:6">
+    <row r="57" spans="4:29">
       <c r="F57" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="4:6">
+    <row r="59" spans="4:29">
       <c r="F59" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="4:29">
+      <c r="D61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="4:29">
+      <c r="AB62" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="4:29">
+      <c r="AC63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="4:29">
+      <c r="AC64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="7:29">
+      <c r="AC65" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="7:29">
+      <c r="AB67" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="7:29">
+      <c r="G76" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="7:29">
+      <c r="G77" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="7:29">
+      <c r="G79" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="7:29">
+      <c r="H80" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8">
+      <c r="G81" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8">
+      <c r="H82" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8">
+      <c r="G83" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8">
+      <c r="H84" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8">
+      <c r="G85" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8">
+      <c r="H86" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8">
+      <c r="D89" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8">
+      <c r="G90" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8">
+      <c r="G91" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8">
+      <c r="D93" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8">
+      <c r="G94" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8">
+      <c r="G95" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="4:14">
+      <c r="G115" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="4:14">
+      <c r="H116" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="4:14">
+      <c r="N117" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="4:14">
+      <c r="H119" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="4:14">
+      <c r="G120" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="4:14">
+      <c r="H121" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="4:14">
+      <c r="H122" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14">
+      <c r="H123" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="4:14">
+      <c r="D125" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="4:14">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="4:14">
+      <c r="D127" s="1"/>
+      <c r="G127" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="4:14">
+      <c r="G128" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7">
+      <c r="G130" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7">
+      <c r="G131" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7">
+      <c r="G132" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7">
+      <c r="G133" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/linux-kernel/memory.xlsx
+++ b/linux-kernel/memory.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/linux-kernel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="795" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="720" yWindow="800" windowWidth="25380" windowHeight="15680"/>
   </bookViews>
   <sheets>
     <sheet name="memory" sheetId="8" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>系统中只存在3个区</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -253,14 +258,330 @@
   </si>
   <si>
     <t>方法1：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法2:</t>
+    <rPh sb="0" eb="1">
+      <t>fang fa</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核提供了更方便的接口来处理cpu独有数据</t>
+    <rPh sb="0" eb="1">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>geng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang bian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu li</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>du you</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECLEAR_PER_CPU(type, name)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_cpu_var</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>put_cpu_var</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态分配：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态分配</t>
+    <rPh sb="0" eb="1">
+      <t>dong tai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen pei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alloc_percpu(type)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>free_percpu(void*)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存抖动：CPU0上的数据访问时，发现缓存在另一个cpu1上面，需要刷新自己的缓存，这个叫缓存抖动</t>
+    <rPh sb="0" eb="1">
+      <t>huan cun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dou dong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu ju fang wen</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fa xian</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>huan cun</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ling yi ge</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shang mian</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>shua xin</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zi ji</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>de</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>huan cun</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>huan cun</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>dou dong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用自己CPU的数据可以降低缓存抖动，提高性能。</t>
+    <rPh sb="0" eb="1">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiang di</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>huan cun</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dou dong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ti gao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xing neng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理自己CPU数据时，一般都是手动调用禁止抢占的（可能被封装到接口中了），不能睡眠（睡眠时主动让出重新调度，不是抢占），否则醒来时候，就可能跑到其他CPU上运行了。</t>
+    <rPh sb="0" eb="1">
+      <t>chu li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi ban</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dou shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shou dong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jin zhi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qiang zhan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>de</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ke neng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>feng zhuang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>le</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>shui mian</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>shui mian</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zhu dong</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>rang chu</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>chong xin</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>qiang zhan</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>fou ze</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>xing lai</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ke neng</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>yun xing le</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在内核中分配内存</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen pei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nei cun</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1280,8 +1601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7191375" y="609600"/>
-          <a:ext cx="4248150" cy="3924300"/>
+          <a:off x="7175500" y="654957"/>
+          <a:ext cx="4238171" cy="4230461"/>
           <a:chOff x="15154275" y="13173075"/>
           <a:chExt cx="5514975" cy="3933825"/>
         </a:xfrm>
@@ -1490,7 +1811,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1513,14 +1834,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2725,8 +3046,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3505200" y="8524875"/>
-          <a:ext cx="942975" cy="561975"/>
+          <a:off x="3497489" y="9193893"/>
+          <a:ext cx="940707" cy="607332"/>
           <a:chOff x="3505200" y="8524875"/>
           <a:chExt cx="942975" cy="561975"/>
         </a:xfrm>
@@ -2931,8 +3252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3629025" y="9334500"/>
-          <a:ext cx="942975" cy="561975"/>
+          <a:off x="3620861" y="10071554"/>
+          <a:ext cx="941160" cy="607332"/>
           <a:chOff x="3505200" y="8524875"/>
           <a:chExt cx="942975" cy="561975"/>
         </a:xfrm>
@@ -3504,8 +3825,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3648075" y="10067925"/>
-          <a:ext cx="942975" cy="561975"/>
+          <a:off x="3639911" y="10861675"/>
+          <a:ext cx="941160" cy="607332"/>
           <a:chOff x="3505200" y="8524875"/>
           <a:chExt cx="942975" cy="561975"/>
         </a:xfrm>
@@ -4111,122 +4432,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D29:AC133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B29:AC147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="N136" sqref="N136"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="2"/>
+    <col min="1" max="16384" width="2.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="29" spans="18:18">
+    <row r="29" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R29" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="4:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="4:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H40" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="4:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F41" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="4:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F42" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="4:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="4:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F45" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="4:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F46" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="4:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="4:29">
+    <row r="49" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="4:29">
+    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="4:29">
+    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="4:29">
+    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D53" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="4:29">
+    <row r="54" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F54" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="4:29">
+    <row r="55" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F55" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="4:29">
+    <row r="56" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F56" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="4:29">
+    <row r="57" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F57" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="4:29">
+    <row r="59" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F59" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="4:29">
+    <row r="61" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D61" s="1" t="s">
         <v>20</v>
       </c>
@@ -4234,188 +4560,248 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="4:29">
+    <row r="62" spans="4:29" x14ac:dyDescent="0.2">
       <c r="AB62" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="4:29">
+    <row r="63" spans="4:29" x14ac:dyDescent="0.2">
       <c r="AC63" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="4:29">
+    <row r="64" spans="4:29" x14ac:dyDescent="0.2">
       <c r="AC64" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="7:29">
+    <row r="65" spans="7:29" x14ac:dyDescent="0.2">
       <c r="AC65" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="7:29">
+    <row r="67" spans="7:29" x14ac:dyDescent="0.2">
       <c r="AB67" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="7:29">
+    <row r="76" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G76" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="7:29">
+    <row r="77" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G77" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="7:29">
+    <row r="79" spans="7:29" x14ac:dyDescent="0.2">
       <c r="G79" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="7:29">
+    <row r="80" spans="7:29" x14ac:dyDescent="0.2">
       <c r="H80" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="4:8">
+    <row r="81" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G81" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="4:8">
+    <row r="82" spans="4:8" x14ac:dyDescent="0.2">
       <c r="H82" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="4:8">
+    <row r="83" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G83" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="4:8">
+    <row r="84" spans="4:8" x14ac:dyDescent="0.2">
       <c r="H84" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="4:8">
+    <row r="85" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G85" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="4:8">
+    <row r="86" spans="4:8" x14ac:dyDescent="0.2">
       <c r="H86" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="4:8">
+    <row r="89" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="4:8">
+    <row r="90" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G90" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="4:8">
+    <row r="91" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G91" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="4:8">
+    <row r="93" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D93" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="4:8">
+    <row r="94" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G94" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="4:8">
+    <row r="95" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G95" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="4:14">
+    <row r="115" spans="4:14" x14ac:dyDescent="0.2">
       <c r="G115" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="4:14">
+    <row r="116" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H116" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="4:14">
+    <row r="117" spans="4:14" x14ac:dyDescent="0.2">
       <c r="N117" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="4:14">
+    <row r="119" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H119" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="4:14">
+    <row r="120" spans="4:14" x14ac:dyDescent="0.2">
       <c r="G120" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="4:14">
+    <row r="121" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H121" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="4:14">
+    <row r="122" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H122" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="4:14">
+    <row r="123" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H123" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="4:14">
+    <row r="125" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D125" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="4:14">
+    <row r="126" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:14">
+    <row r="127" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
       <c r="G127" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="4:14">
+    <row r="128" spans="4:14" x14ac:dyDescent="0.2">
       <c r="G128" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="7:7">
+    <row r="130" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G130" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="7:7">
+    <row r="131" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G131" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="7:7">
+    <row r="132" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G132" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="7:7">
+    <row r="133" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G133" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G135" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H136" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I137" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I138" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I139" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I140" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I141" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I142" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I143" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G145" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G146" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G147" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
